--- a/doc/temp/4月18日团购群.xlsx
+++ b/doc/temp/4月18日团购群.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="订单列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="207">
   <si>
     <t>跟团号</t>
   </si>
@@ -384,28 +384,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>龚家宅面粉团(10斤)</t>
-  </si>
-  <si>
     <t>面粉(10斤)</t>
   </si>
   <si>
-    <t>龚家宅崇明大米团(20斤)</t>
-  </si>
-  <si>
     <t>崇明大米(20斤)</t>
   </si>
   <si>
-    <t>龚家宅水果团</t>
-  </si>
-  <si>
-    <t>龚家宅蔬菜团(十份以上成团)</t>
-  </si>
-  <si>
     <t>鸡蛋(30个)</t>
-  </si>
-  <si>
-    <t>龚家宅面粉团</t>
   </si>
   <si>
     <t>10斤</t>
@@ -505,9 +490,6 @@
     <t>501</t>
   </si>
   <si>
-    <t>龚家宅崇明大米团</t>
-  </si>
-  <si>
     <t>1139401025326</t>
   </si>
   <si>
@@ -520,9 +502,6 @@
     <t>106</t>
   </si>
   <si>
-    <t>龚家宅蔬菜团</t>
-  </si>
-  <si>
     <t>1139354826500</t>
   </si>
   <si>
@@ -533,14 +512,6 @@
   </si>
   <si>
     <t>鸡蛋(30个)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚家宅崇明大米团(20斤)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚家宅水果团(1份)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -561,42 +532,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4月18日团购群</t>
-  </si>
-  <si>
-    <t>4月19日团购群</t>
-  </si>
-  <si>
-    <t>4月20日团购群</t>
-  </si>
-  <si>
-    <t>4月21日团购群</t>
-  </si>
-  <si>
-    <t>4月22日团购群</t>
-  </si>
-  <si>
-    <t>4月23日团购群</t>
-  </si>
-  <si>
-    <t>4月24日团购群</t>
-  </si>
-  <si>
-    <t>4月25日团购群</t>
-  </si>
-  <si>
-    <t>4月26日团购群</t>
-  </si>
-  <si>
-    <t>4月27日团购群</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -618,6 +554,171 @@
   <si>
     <t>4月18日团购群</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa2</t>
+  </si>
+  <si>
+    <t>aaa3</t>
+  </si>
+  <si>
+    <t>aaa4</t>
+  </si>
+  <si>
+    <t>aaa5</t>
+  </si>
+  <si>
+    <t>aaa6</t>
+  </si>
+  <si>
+    <t>aaa7</t>
+  </si>
+  <si>
+    <t>aaa8</t>
+  </si>
+  <si>
+    <t>aaa9</t>
+  </si>
+  <si>
+    <t>aaa10</t>
+  </si>
+  <si>
+    <t>aaa11</t>
+  </si>
+  <si>
+    <t>aaa12</t>
+  </si>
+  <si>
+    <t>aaa13</t>
+  </si>
+  <si>
+    <t>aaa14</t>
+  </si>
+  <si>
+    <t>aaa15</t>
+  </si>
+  <si>
+    <t>aaa16</t>
+  </si>
+  <si>
+    <t>aaa17</t>
+  </si>
+  <si>
+    <t>aaa18</t>
+  </si>
+  <si>
+    <t>aaa19</t>
+  </si>
+  <si>
+    <t>aaa20</t>
+  </si>
+  <si>
+    <t>aaa21</t>
+  </si>
+  <si>
+    <t>aaa22</t>
+  </si>
+  <si>
+    <t>aaa23</t>
+  </si>
+  <si>
+    <t>aaa24</t>
+  </si>
+  <si>
+    <t>aaa25</t>
+  </si>
+  <si>
+    <t>aaa26</t>
+  </si>
+  <si>
+    <t>aaa27</t>
+  </si>
+  <si>
+    <t>aaa28</t>
+  </si>
+  <si>
+    <t>aaa29</t>
+  </si>
+  <si>
+    <t>aaa30</t>
+  </si>
+  <si>
+    <t>aaa31</t>
+  </si>
+  <si>
+    <t>aaa32</t>
+  </si>
+  <si>
+    <t>aaa33</t>
+  </si>
+  <si>
+    <t>aaa34</t>
+  </si>
+  <si>
+    <t>aaa35</t>
+  </si>
+  <si>
+    <t>aaa36</t>
+  </si>
+  <si>
+    <t>aaa37</t>
+  </si>
+  <si>
+    <t>aaa38</t>
+  </si>
+  <si>
+    <t>aaa39</t>
+  </si>
+  <si>
+    <t>aaa40</t>
+  </si>
+  <si>
+    <t>aaa41</t>
+  </si>
+  <si>
+    <t>aaa42</t>
+  </si>
+  <si>
+    <t>aaa43</t>
+  </si>
+  <si>
+    <t>aaa44</t>
+  </si>
+  <si>
+    <t>崇明大米团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉团(10斤)</t>
+  </si>
+  <si>
+    <t>崇明大米团(20斤)</t>
+  </si>
+  <si>
+    <t>水果团(1份)</t>
+  </si>
+  <si>
+    <t>蔬菜团(十份以上成团)</t>
   </si>
 </sst>
 </file>
@@ -2225,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2273,22 +2374,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G2" s="12">
-        <v>12222222222</v>
+        <v>12222222221</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>47</v>
@@ -2305,19 +2406,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G3" s="12">
         <v>12222222222</v>
@@ -2337,22 +2438,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G4" s="12">
-        <v>12222222222</v>
+        <v>12222222223</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>37</v>
@@ -2369,22 +2470,22 @@
         <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G5" s="12">
-        <v>12222222222</v>
+        <v>12222222224</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>46</v>
@@ -2401,22 +2502,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G6" s="12">
-        <v>12222222222</v>
+        <v>12222222225</v>
       </c>
       <c r="H6" s="13">
         <v>101</v>
@@ -2433,25 +2534,25 @@
         <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G7" s="12">
-        <v>12222222222</v>
+        <v>12222222226</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>49</v>
@@ -2465,22 +2566,22 @@
         <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G8" s="12">
-        <v>12222222222</v>
+        <v>12222222227</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>55</v>
@@ -2497,22 +2598,22 @@
         <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G9" s="12">
-        <v>12222222222</v>
+        <v>12222222228</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>9</v>
@@ -2529,22 +2630,22 @@
         <v>27</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G10" s="12">
-        <v>12222222222</v>
+        <v>12222222229</v>
       </c>
       <c r="H10" s="13">
         <v>404</v>
@@ -2561,22 +2662,22 @@
         <v>28</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" s="12">
-        <v>12222222222</v>
+        <v>12222222230</v>
       </c>
       <c r="H11" s="13">
         <v>405</v>
@@ -2593,25 +2694,25 @@
         <v>29</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G12" s="12">
-        <v>12222222222</v>
+        <v>12222222231</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>45</v>
@@ -2625,22 +2726,22 @@
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G13" s="12">
-        <v>12222222222</v>
+        <v>12222222232</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>19</v>
@@ -2657,22 +2758,22 @@
         <v>32</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G14" s="12">
-        <v>12222222222</v>
+        <v>12222222233</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>46</v>
@@ -2689,25 +2790,25 @@
         <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="12">
-        <v>12222222222</v>
+        <v>12222222234</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>44</v>
@@ -2721,22 +2822,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G16" s="12">
-        <v>12222222222</v>
+        <v>12222222235</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>19</v>
@@ -2753,22 +2854,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="12">
-        <v>12222222222</v>
+        <v>12222222236</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>22</v>
@@ -2788,10 +2889,10 @@
         <v>171</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" s="15">
         <v>2</v>
@@ -2800,7 +2901,7 @@
         <v>171</v>
       </c>
       <c r="G18" s="12">
-        <v>12222222222</v>
+        <v>12222222237</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>9</v>
@@ -2817,22 +2918,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G19" s="12">
-        <v>12222222222</v>
+        <v>12222222238</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>37</v>
@@ -2849,22 +2950,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G20" s="12">
-        <v>12222222222</v>
+        <v>12222222239</v>
       </c>
       <c r="H20" s="15">
         <v>405</v>
@@ -2881,25 +2982,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G21" s="12">
-        <v>12222222222</v>
+        <v>12222222240</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>23</v>
@@ -2913,22 +3014,22 @@
         <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E22" s="15">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G22" s="12">
-        <v>12222222222</v>
+        <v>12222222241</v>
       </c>
       <c r="H22" s="15">
         <v>303</v>
@@ -2945,22 +3046,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G23" s="12">
-        <v>12222222222</v>
+        <v>12222222242</v>
       </c>
       <c r="H23" s="15">
         <v>303</v>
@@ -2977,22 +3078,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24" s="15">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G24" s="12">
-        <v>12222222222</v>
+        <v>12222222243</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>12</v>
@@ -3009,22 +3110,22 @@
         <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G25" s="12">
-        <v>12222222222</v>
+        <v>12222222244</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>12</v>
@@ -3041,22 +3142,22 @@
         <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E26" s="15">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G26" s="12">
-        <v>12222222222</v>
+        <v>12222222245</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>22</v>
@@ -3073,22 +3174,22 @@
         <v>8</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G27" s="12">
-        <v>12222222222</v>
+        <v>12222222246</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>47</v>
@@ -3105,22 +3206,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="E28" s="15">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G28" s="12">
-        <v>12222222222</v>
+        <v>12222222247</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>14</v>
@@ -3137,22 +3238,22 @@
         <v>10</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G29" s="12">
-        <v>12222222222</v>
+        <v>12222222248</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>12</v>
@@ -3169,22 +3270,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E30" s="15">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G30" s="12">
-        <v>12222222222</v>
+        <v>12222222249</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>36</v>
@@ -3201,22 +3302,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E31" s="15">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G31" s="12">
-        <v>12222222222</v>
+        <v>12222222250</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>35</v>
@@ -3233,22 +3334,22 @@
         <v>10</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E32" s="15">
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G32" s="12">
-        <v>12222222222</v>
+        <v>12222222251</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>35</v>
@@ -3265,22 +3366,22 @@
         <v>16</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E33" s="15">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G33" s="12">
-        <v>12222222222</v>
+        <v>12222222252</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>14</v>
@@ -3297,25 +3398,25 @@
         <v>18</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E34" s="15">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G34" s="12">
-        <v>12222222222</v>
+        <v>12222222253</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>17</v>
@@ -3329,22 +3430,22 @@
         <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E35" s="15">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G35" s="12">
-        <v>12222222222</v>
+        <v>12222222254</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>22</v>
@@ -3361,22 +3462,22 @@
         <v>23</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G36" s="12">
-        <v>12222222222</v>
+        <v>12222222255</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>37</v>
@@ -3393,25 +3494,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E37" s="15">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G37" s="12">
-        <v>12222222222</v>
+        <v>12222222256</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>23</v>
@@ -3425,22 +3526,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E38" s="15">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G38" s="12">
-        <v>12222222222</v>
+        <v>12222222257</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>41</v>
@@ -3457,25 +3558,25 @@
         <v>10</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E39" s="15">
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G39" s="12">
-        <v>12222222222</v>
+        <v>12222222258</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I39" s="15">
         <v>57</v>
@@ -3489,22 +3590,22 @@
         <v>16</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E40" s="15">
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G40" s="12">
-        <v>12222222222</v>
+        <v>12222222259</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>35</v>
@@ -3521,25 +3622,25 @@
         <v>18</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E41" s="15">
         <v>1</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G41" s="12">
-        <v>12222222222</v>
+        <v>12222222260</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>49</v>
@@ -3553,22 +3654,22 @@
         <v>21</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E42" s="15">
         <v>1</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G42" s="12">
-        <v>12222222222</v>
+        <v>12222222261</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>22</v>
@@ -3585,22 +3686,22 @@
         <v>23</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E43" s="15">
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G43" s="12">
-        <v>12222222222</v>
+        <v>12222222262</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>33</v>
@@ -3617,25 +3718,25 @@
         <v>24</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E44" s="15">
         <v>1</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="G44" s="12">
-        <v>12222222222</v>
+        <v>12222222263</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>44</v>
@@ -3649,22 +3750,22 @@
         <v>27</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E45" s="15">
         <v>1</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="G45" s="12">
-        <v>12222222222</v>
+        <v>12222222264</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>22</v>
@@ -3687,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3749,25 +3850,25 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>61</v>
@@ -3782,7 +3883,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M2" s="8">
         <v>560</v>
@@ -3796,40 +3897,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K3" s="15">
         <v>2</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M3" s="15">
         <v>196</v>
@@ -3843,22 +3944,22 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>61</v>
@@ -3873,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M4" s="15">
         <v>0</v>
@@ -3881,22 +3982,22 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>61</v>
@@ -3911,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M5" s="15">
         <v>76</v>
@@ -3919,22 +4020,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>61</v>
@@ -3949,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M6" s="15">
         <v>120</v>
@@ -3957,37 +4058,37 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K7" s="15">
         <v>5</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M7" s="15">
         <v>180</v>
@@ -3995,22 +4096,22 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>61</v>
@@ -4025,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M8" s="15">
         <v>58</v>
@@ -4033,22 +4134,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>147</v>
+      <c r="C9" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>61</v>
@@ -4063,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M9" s="15">
         <v>304</v>
@@ -4071,22 +4172,22 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>111</v>
+      <c r="C10" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>61</v>
@@ -4101,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M10" s="15">
         <v>616</v>
@@ -4115,37 +4216,37 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>152</v>
+      <c r="C11" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K11" s="15">
         <v>9</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M11" s="15">
         <v>882</v>
@@ -4169,7 +4270,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4177,6 +4278,7 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
@@ -4226,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4234,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7">
         <v>44667</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
